--- a/data/trans_orig/P07B_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P07B_2023-Provincia-trans_orig.xlsx
@@ -757,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>2691</v>
+        <v>2389</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.001492670267050141</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.008512765935661649</v>
+        <v>0.007559491379407278</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>2393</v>
+        <v>2424</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0007430617772942335</v>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.003769752678029493</v>
+        <v>0.003817929690467752</v>
       </c>
     </row>
     <row r="5">
@@ -804,19 +804,19 @@
         <v>7125</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3434</v>
+        <v>3223</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>13596</v>
+        <v>13416</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.02234655653811149</v>
+        <v>0.0223465565381115</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01076929742416263</v>
+        <v>0.01010873719031846</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04264197385324119</v>
+        <v>0.04207682001039106</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>24</v>
@@ -825,19 +825,19 @@
         <v>12422</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>8024</v>
+        <v>8200</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>18266</v>
+        <v>18135</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03930187186581771</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02538651025227013</v>
+        <v>0.02594458673825824</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.05779347148003355</v>
+        <v>0.05737847977826742</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>32</v>
@@ -846,19 +846,19 @@
         <v>19547</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>13442</v>
+        <v>13283</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>27792</v>
+        <v>27440</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0307870319867769</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02117107724868449</v>
+        <v>0.02092111562300192</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04377289395261064</v>
+        <v>0.04321842853830239</v>
       </c>
     </row>
     <row r="6">
@@ -875,19 +875,19 @@
         <v>93526</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>78660</v>
+        <v>78381</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>108152</v>
+        <v>111535</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.2933260421214333</v>
+        <v>0.2933260421214334</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2467024361668413</v>
+        <v>0.2458277589840389</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3391998732137858</v>
+        <v>0.3498080425564555</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>188</v>
@@ -896,19 +896,19 @@
         <v>106262</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>94475</v>
+        <v>93365</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>122009</v>
+        <v>121889</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.3362083737836325</v>
+        <v>0.3362083737836324</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2989143078928306</v>
+        <v>0.2954023957310868</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3860304166338112</v>
+        <v>0.3856515507224212</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>296</v>
@@ -917,19 +917,19 @@
         <v>199788</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>177620</v>
+        <v>179340</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>219633</v>
+        <v>220116</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3146731690005702</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2797575191672845</v>
+        <v>0.2824671726186678</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3459296464105959</v>
+        <v>0.346690727897055</v>
       </c>
     </row>
     <row r="7">
@@ -946,19 +946,19 @@
         <v>175982</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>158594</v>
+        <v>155696</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>195004</v>
+        <v>194098</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.5519351450979439</v>
+        <v>0.5519351450979441</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4974029355386264</v>
+        <v>0.488312997733715</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6115946534787965</v>
+        <v>0.6087530601452539</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>297</v>
@@ -967,19 +967,19 @@
         <v>178535</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>162617</v>
+        <v>163191</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>192544</v>
+        <v>192493</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5648766315583459</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5145113169596115</v>
+        <v>0.5163279960802688</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6092000799851929</v>
+        <v>0.6090364519924264</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>479</v>
@@ -988,19 +988,19 @@
         <v>354517</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>332813</v>
+        <v>330818</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>379273</v>
+        <v>375506</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.5583775082523329</v>
+        <v>0.5583775082523328</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5241923205592146</v>
+        <v>0.5210500627847292</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5973685762558432</v>
+        <v>0.5914353701039652</v>
       </c>
     </row>
     <row r="8">
@@ -1017,19 +1017,19 @@
         <v>42213</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>29011</v>
+        <v>28969</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>58126</v>
+        <v>60202</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1323922562425112</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.09098627448620894</v>
+        <v>0.09085558225847244</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1823026272862252</v>
+        <v>0.188812247297338</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>28</v>
@@ -1038,19 +1038,19 @@
         <v>18370</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>12283</v>
+        <v>12057</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>27677</v>
+        <v>27185</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.05812045252515374</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.03886380986243547</v>
+        <v>0.0381476268543853</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.08756735989704938</v>
+        <v>0.08601255245814952</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>61</v>
@@ -1059,19 +1059,19 @@
         <v>60582</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>46774</v>
+        <v>46252</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>81081</v>
+        <v>83287</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.09541922898302589</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.07367111166728367</v>
+        <v>0.07284854760662354</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1277060512006822</v>
+        <v>0.1311792623523826</v>
       </c>
     </row>
     <row r="9">
@@ -1166,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5752</v>
+        <v>6606</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.002509519622378867</v>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01083968322009233</v>
+        <v>0.01244872639672188</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -1184,19 +1184,19 @@
         <v>3466</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1340</v>
+        <v>1233</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8062</v>
+        <v>7614</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.006342486852231355</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.00245140203089307</v>
+        <v>0.002256943802869173</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01475257316892508</v>
+        <v>0.01393316645579334</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>6</v>
@@ -1205,19 +1205,19 @@
         <v>4798</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1991</v>
+        <v>1869</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>11018</v>
+        <v>10651</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.004454199320867866</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001848625824986402</v>
+        <v>0.001735463484143125</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01022863507815147</v>
+        <v>0.009888326614091171</v>
       </c>
     </row>
     <row r="11">
@@ -1234,19 +1234,19 @@
         <v>25100</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>14818</v>
+        <v>14327</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>38467</v>
+        <v>39718</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.04730041610494402</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02792355640557658</v>
+        <v>0.02699880960703242</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.072490184589743</v>
+        <v>0.07484790151845973</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>44</v>
@@ -1255,19 +1255,19 @@
         <v>30432</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>22780</v>
+        <v>22588</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>39966</v>
+        <v>41372</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.05568530142646804</v>
+        <v>0.05568530142646805</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04168329150437124</v>
+        <v>0.04133215456076294</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.07313252071004202</v>
+        <v>0.07570386720106782</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>63</v>
@@ -1276,19 +1276,19 @@
         <v>55532</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>42187</v>
+        <v>42926</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>73319</v>
+        <v>72564</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.05155453968104194</v>
+        <v>0.05155453968104193</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03916615513927305</v>
+        <v>0.0398521407189535</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.0680684806260409</v>
+        <v>0.06736750426115753</v>
       </c>
     </row>
     <row r="12">
@@ -1305,19 +1305,19 @@
         <v>124998</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>103285</v>
+        <v>104562</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>149154</v>
+        <v>148751</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.235557439373508</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1946392172344136</v>
+        <v>0.1970465033511312</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2810801206604583</v>
+        <v>0.2803198423999699</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>252</v>
@@ -1326,19 +1326,19 @@
         <v>175873</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>156745</v>
+        <v>157368</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>196663</v>
+        <v>193514</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3218198370975904</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2868189754061427</v>
+        <v>0.2879589711920346</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3598627957762821</v>
+        <v>0.354100222572676</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>356</v>
@@ -1347,19 +1347,19 @@
         <v>300870</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>273934</v>
+        <v>272784</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>333189</v>
+        <v>331141</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2793232019113376</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2543154120998614</v>
+        <v>0.2532483668825725</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.309327588111354</v>
+        <v>0.3074259075236438</v>
       </c>
     </row>
     <row r="13">
@@ -1376,19 +1376,19 @@
         <v>271022</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>243954</v>
+        <v>242176</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>301803</v>
+        <v>298896</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.5107385156338683</v>
+        <v>0.5107385156338684</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4597297794092256</v>
+        <v>0.4563791400496282</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5687446091982031</v>
+        <v>0.563267524774913</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>338</v>
@@ -1397,19 +1397,19 @@
         <v>266439</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>245128</v>
+        <v>246377</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>287020</v>
+        <v>286512</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4875422755644356</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4485473620371601</v>
+        <v>0.4508325252088984</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5252031709000557</v>
+        <v>0.5242736791651498</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>531</v>
@@ -1418,19 +1418,19 @@
         <v>537461</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>499935</v>
+        <v>497847</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>571807</v>
+        <v>572265</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.4989697593572751</v>
+        <v>0.4989697593572752</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4641314889768709</v>
+        <v>0.4621925759800162</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5308562990636134</v>
+        <v>0.5312817754048763</v>
       </c>
     </row>
     <row r="14">
@@ -1447,19 +1447,19 @@
         <v>108196</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>83665</v>
+        <v>87078</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>135170</v>
+        <v>138535</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2038941092653007</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1576654006087929</v>
+        <v>0.1640986550128083</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2547259391438325</v>
+        <v>0.2610680759654198</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>78</v>
@@ -1468,19 +1468,19 @@
         <v>70285</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>55167</v>
+        <v>55781</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>88264</v>
+        <v>89562</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1286100990592745</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1009472610474877</v>
+        <v>0.1020702598359959</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1615091138739091</v>
+        <v>0.1638846320495044</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>143</v>
@@ -1489,19 +1489,19 @@
         <v>178480</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>148833</v>
+        <v>149779</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>211554</v>
+        <v>210947</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1656982997294774</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1381744706226033</v>
+        <v>0.1390521166104877</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1964031174665106</v>
+        <v>0.1958395350143955</v>
       </c>
     </row>
     <row r="15">
@@ -1593,19 +1593,19 @@
         <v>3106</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>746</v>
+        <v>865</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7624</v>
+        <v>7570</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.009829206308695817</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.00236216967409398</v>
+        <v>0.002736861219303479</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02412706525978571</v>
+        <v>0.0239546628085888</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -1614,19 +1614,19 @@
         <v>4432</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8387</v>
+        <v>8943</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01243525088100454</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.005443557758819694</v>
+        <v>0.005445233100883636</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02353399786751215</v>
+        <v>0.02509354842720216</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>12</v>
@@ -1635,19 +1635,19 @@
         <v>7538</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3872</v>
+        <v>3844</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>13593</v>
+        <v>13291</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01121049796451647</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.005758916684530971</v>
+        <v>0.005716927276399523</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02021651299691324</v>
+        <v>0.01976794908139322</v>
       </c>
     </row>
     <row r="17">
@@ -1664,19 +1664,19 @@
         <v>16832</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>10963</v>
+        <v>10609</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>24453</v>
+        <v>24263</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05326771494926712</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03469488586026862</v>
+        <v>0.03357318163872856</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07738378263065782</v>
+        <v>0.07678302718188898</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>51</v>
@@ -1685,19 +1685,19 @@
         <v>29906</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>22113</v>
+        <v>22267</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>38500</v>
+        <v>38750</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.08391456972972114</v>
+        <v>0.08391456972972113</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.06204923195174148</v>
+        <v>0.0624800435876957</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1080317741228829</v>
+        <v>0.1087329703423701</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>74</v>
@@ -1706,19 +1706,19 @@
         <v>46738</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>36941</v>
+        <v>36810</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>57198</v>
+        <v>58336</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.06951158323732398</v>
+        <v>0.06951158323732397</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05494156120745489</v>
+        <v>0.05474652989679564</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08506793072262991</v>
+        <v>0.08676089557575074</v>
       </c>
     </row>
     <row r="18">
@@ -1735,19 +1735,19 @@
         <v>72117</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>60122</v>
+        <v>59514</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>87631</v>
+        <v>86437</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2282231121074256</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1902632932677136</v>
+        <v>0.1883401690030437</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2773182289166425</v>
+        <v>0.2735420017030612</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>165</v>
@@ -1756,19 +1756,19 @@
         <v>103642</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>90629</v>
+        <v>90236</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>117583</v>
+        <v>118181</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2908179978008218</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2543047887817429</v>
+        <v>0.2532023213003932</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3299355763219767</v>
+        <v>0.3316129074531378</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>259</v>
@@ -1777,19 +1777,19 @@
         <v>175759</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>156174</v>
+        <v>157743</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>198197</v>
+        <v>198626</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.2614005159876434</v>
+        <v>0.2614005159876433</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2322725439060485</v>
+        <v>0.2346061614387553</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2947716170137194</v>
+        <v>0.2954101109106637</v>
       </c>
     </row>
     <row r="19">
@@ -1806,19 +1806,19 @@
         <v>184445</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>166412</v>
+        <v>167245</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>199147</v>
+        <v>201922</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5836987530962191</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.526633456384634</v>
+        <v>0.529268227579142</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6302255030421215</v>
+        <v>0.6390069307552924</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>274</v>
@@ -1827,19 +1827,19 @@
         <v>184252</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>167159</v>
+        <v>167719</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>199726</v>
+        <v>199570</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5170090132528447</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4690444614746464</v>
+        <v>0.4706170693275633</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5604291458926379</v>
+        <v>0.5599893903024499</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>475</v>
@@ -1848,19 +1848,19 @@
         <v>368697</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>344062</v>
+        <v>344531</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>391522</v>
+        <v>392288</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.5483509381918507</v>
+        <v>0.5483509381918505</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5117112174759416</v>
+        <v>0.5124096686110082</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5822977277841302</v>
+        <v>0.5834359710853968</v>
       </c>
     </row>
     <row r="20">
@@ -1877,19 +1877,19 @@
         <v>39493</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>28410</v>
+        <v>27773</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>53882</v>
+        <v>52056</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1249812135383923</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.08990730682656661</v>
+        <v>0.08788961454028353</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1705150834471119</v>
+        <v>0.164738836711996</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>38</v>
@@ -1898,19 +1898,19 @@
         <v>34150</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>24403</v>
+        <v>24694</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>47446</v>
+        <v>46276</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.09582316833560785</v>
+        <v>0.09582316833560783</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06847525318583779</v>
+        <v>0.06929032193851939</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1331334074962187</v>
+        <v>0.1298511342684919</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>76</v>
@@ -1919,19 +1919,19 @@
         <v>73643</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>58392</v>
+        <v>59156</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>90702</v>
+        <v>90267</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.1095264646186658</v>
+        <v>0.1095264646186657</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.08684427905771135</v>
+        <v>0.08798104299782956</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1348980564935194</v>
+        <v>0.1342510757577461</v>
       </c>
     </row>
     <row r="21">
@@ -2023,19 +2023,19 @@
         <v>4862</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1583</v>
+        <v>1170</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>13714</v>
+        <v>13592</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01303031870148044</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.004241319186259564</v>
+        <v>0.003136186814368703</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0367531841570657</v>
+        <v>0.03642648291569522</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>20</v>
@@ -2044,19 +2044,19 @@
         <v>12519</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>7467</v>
+        <v>7248</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>21281</v>
+        <v>20497</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02966790914243982</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01769640329108343</v>
+        <v>0.0171770773295212</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05043371402723167</v>
+        <v>0.04857553913815781</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>24</v>
@@ -2065,19 +2065,19 @@
         <v>17381</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>10711</v>
+        <v>10981</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>28866</v>
+        <v>29236</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02185985273069778</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01347137803489781</v>
+        <v>0.01381043658013472</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03630447967722277</v>
+        <v>0.0367704516243206</v>
       </c>
     </row>
     <row r="23">
@@ -2094,19 +2094,19 @@
         <v>32429</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>21345</v>
+        <v>21084</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>46037</v>
+        <v>48582</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.08690596736336341</v>
+        <v>0.0869059673633634</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.05720263795422319</v>
+        <v>0.05650221395116083</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1233767355175216</v>
+        <v>0.1301958812299062</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>65</v>
@@ -2115,19 +2115,19 @@
         <v>36955</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>28273</v>
+        <v>28502</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>47981</v>
+        <v>48032</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.08758014535180671</v>
+        <v>0.08758014535180673</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.06700404618917208</v>
+        <v>0.06754697078964864</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1137095664723752</v>
+        <v>0.1138314711513832</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>94</v>
@@ -2136,19 +2136,19 @@
         <v>69384</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>54665</v>
+        <v>55585</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>86283</v>
+        <v>86829</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.08726375219475671</v>
+        <v>0.0872637521947567</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.06875149678408242</v>
+        <v>0.06990843843061707</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1085177643212285</v>
+        <v>0.1092040570529906</v>
       </c>
     </row>
     <row r="24">
@@ -2165,19 +2165,19 @@
         <v>114276</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>95012</v>
+        <v>94443</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>139826</v>
+        <v>137856</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.306251978505392</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.254624412216016</v>
+        <v>0.2531005971577082</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3747218964464347</v>
+        <v>0.3694423125087863</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>230</v>
@@ -2186,19 +2186,19 @@
         <v>139648</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>122220</v>
+        <v>122745</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>158288</v>
+        <v>159603</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.3309495995421044</v>
+        <v>0.3309495995421045</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2896477329478843</v>
+        <v>0.2908915416583046</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3751245607674434</v>
+        <v>0.3782413264048439</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>341</v>
@@ -2207,19 +2207,19 @@
         <v>253925</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>227258</v>
+        <v>226213</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>279601</v>
+        <v>281900</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3193589537106183</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2858212126173402</v>
+        <v>0.2845065756088505</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3516514299680878</v>
+        <v>0.3545438459947199</v>
       </c>
     </row>
     <row r="25">
@@ -2236,19 +2236,19 @@
         <v>116003</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>95898</v>
+        <v>95097</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>141836</v>
+        <v>141424</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3108779120832896</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2570000197406379</v>
+        <v>0.2548529308947686</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3801106636178421</v>
+        <v>0.3790058503249771</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>188</v>
@@ -2257,19 +2257,19 @@
         <v>134731</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>115935</v>
+        <v>116244</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>153253</v>
+        <v>154100</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.319297465075616</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2747533688621268</v>
+        <v>0.2754859405757312</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.363191242229597</v>
+        <v>0.3651999377413119</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>279</v>
@@ -2278,19 +2278,19 @@
         <v>250734</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>221809</v>
+        <v>220929</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>278528</v>
+        <v>281254</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3153461510341372</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2789675256493797</v>
+        <v>0.277860389823902</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3503029269912641</v>
+        <v>0.3537316166487922</v>
       </c>
     </row>
     <row r="26">
@@ -2307,19 +2307,19 @@
         <v>105575</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>81784</v>
+        <v>79536</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>133547</v>
+        <v>130363</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2829338233464747</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2191746614256392</v>
+        <v>0.2131491723552914</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.357894818828534</v>
+        <v>0.3493618052045085</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>96</v>
@@ -2328,19 +2328,19 @@
         <v>98108</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>79763</v>
+        <v>79399</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>120224</v>
+        <v>119538</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2325048808880332</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1890291667771449</v>
+        <v>0.1881661790665046</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2849163494785429</v>
+        <v>0.283292689143172</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>153</v>
@@ -2349,19 +2349,19 @@
         <v>203684</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>174981</v>
+        <v>173593</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>240617</v>
+        <v>237993</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.25617129032979</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2200720838272023</v>
+        <v>0.2183260816850555</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3026218115947798</v>
+        <v>0.2993223490719963</v>
       </c>
     </row>
     <row r="27">
@@ -2456,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>4209</v>
+        <v>3634</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.005624534695380245</v>
@@ -2465,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02046462384446355</v>
+        <v>0.01766741918015013</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1</v>
@@ -2477,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2227</v>
+        <v>2102</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.001959742697120432</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.009756853711513061</v>
+        <v>0.009208164951442973</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3</v>
@@ -2495,19 +2495,19 @@
         <v>1604</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>4497</v>
+        <v>4620</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.003696637029993723</v>
+        <v>0.003696637029993722</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.001014226065597463</v>
+        <v>0.001040404000449856</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01036364821426758</v>
+        <v>0.01064721242516215</v>
       </c>
     </row>
     <row r="29">
@@ -2524,19 +2524,19 @@
         <v>3820</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1719</v>
+        <v>1531</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>7888</v>
+        <v>7732</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01857260667284374</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.008357579805819115</v>
+        <v>0.007442212060869302</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03835602657203486</v>
+        <v>0.03759378522087908</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>35</v>
@@ -2545,19 +2545,19 @@
         <v>14215</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>10041</v>
+        <v>9784</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>19493</v>
+        <v>19123</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.06227148521614952</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.04398486486333295</v>
+        <v>0.04286106968588209</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.08539244541858186</v>
+        <v>0.08377146397723154</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>42</v>
@@ -2566,19 +2566,19 @@
         <v>18035</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>13205</v>
+        <v>13478</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>24429</v>
+        <v>24721</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.04156080517460106</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03043011877460761</v>
+        <v>0.0310587645696227</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.05629482999490672</v>
+        <v>0.05696788152261164</v>
       </c>
     </row>
     <row r="30">
@@ -2595,19 +2595,19 @@
         <v>164551</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>151316</v>
+        <v>152630</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>174871</v>
+        <v>175404</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.8000948143272195</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.7357384793775161</v>
+        <v>0.7421316210705802</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.8502708763196086</v>
+        <v>0.8528612155034382</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>422</v>
@@ -2616,19 +2616,19 @@
         <v>189454</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>178934</v>
+        <v>179071</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>197283</v>
+        <v>197643</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.8299136472861055</v>
+        <v>0.8299136472861056</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.7838340972898492</v>
+        <v>0.7844310213558215</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.8642101074349748</v>
+        <v>0.8657869666347645</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>656</v>
@@ -2637,19 +2637,19 @@
         <v>354005</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>337346</v>
+        <v>339359</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>368463</v>
+        <v>367720</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.8157812867036284</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.7773921399904774</v>
+        <v>0.7820311995207498</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.8490996728472684</v>
+        <v>0.8473873344722533</v>
       </c>
     </row>
     <row r="31">
@@ -2666,19 +2666,19 @@
         <v>33653</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>24605</v>
+        <v>23343</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>47833</v>
+        <v>44795</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1636284310776193</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1196366940705993</v>
+        <v>0.1135019907696399</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2325790939122016</v>
+        <v>0.2178056980479694</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>31</v>
@@ -2687,19 +2687,19 @@
         <v>21260</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>14250</v>
+        <v>14324</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>31515</v>
+        <v>31241</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.09313287355899999</v>
+        <v>0.093132873559</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.06242264947758317</v>
+        <v>0.0627485919649151</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1380525631237126</v>
+        <v>0.1368523939990105</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>65</v>
@@ -2708,19 +2708,19 @@
         <v>54913</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>42439</v>
+        <v>42123</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>70742</v>
+        <v>69518</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1265435922041438</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.09779778343014811</v>
+        <v>0.09706879435888723</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1630213573478645</v>
+        <v>0.1601993786404442</v>
       </c>
     </row>
     <row r="32">
@@ -2740,7 +2740,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>12048</v>
+        <v>10665</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01207961322693718</v>
@@ -2749,7 +2749,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.05857870969333809</v>
+        <v>0.05185458683945266</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>5</v>
@@ -2758,19 +2758,19 @@
         <v>2904</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1054</v>
+        <v>900</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>6353</v>
+        <v>6547</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01272225124162438</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.004616994909632128</v>
+        <v>0.003944292857135289</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02783090037170092</v>
+        <v>0.02868136000571257</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>7</v>
@@ -2779,19 +2779,19 @@
         <v>5389</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>2171</v>
+        <v>2457</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>12017</v>
+        <v>12683</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.0124176788876329</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.005003472211725035</v>
+        <v>0.005662186198213506</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02769128589119855</v>
+        <v>0.02922828756417356</v>
       </c>
     </row>
     <row r="33">
@@ -2883,19 +2883,19 @@
         <v>6477</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>3318</v>
+        <v>3108</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>11584</v>
+        <v>11459</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.02392446309350828</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.0122551947676844</v>
+        <v>0.01148045928385707</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.04278982539714461</v>
+        <v>0.04233106209838625</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>16</v>
@@ -2904,19 +2904,19 @@
         <v>7252</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>4277</v>
+        <v>4136</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>11885</v>
+        <v>12243</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.02749488071704047</v>
+        <v>0.02749488071704046</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.01621470730357496</v>
+        <v>0.01568208038970159</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.04505987857274309</v>
+        <v>0.04642072774314122</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>27</v>
@@ -2925,19 +2925,19 @@
         <v>13728</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>9478</v>
+        <v>9022</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>20372</v>
+        <v>20189</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.02568643498767743</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01773481407937241</v>
+        <v>0.01688033290365023</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.03811724326811912</v>
+        <v>0.03777414455291721</v>
       </c>
     </row>
     <row r="35">
@@ -2954,19 +2954,19 @@
         <v>18527</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>12322</v>
+        <v>13108</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>26210</v>
+        <v>26589</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.06843966632311368</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.04551876895786976</v>
+        <v>0.04842230790821261</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.0968210008829412</v>
+        <v>0.09822216748214617</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>38</v>
@@ -2975,19 +2975,19 @@
         <v>17782</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>12720</v>
+        <v>12315</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>24682</v>
+        <v>24549</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.06742140147221151</v>
+        <v>0.06742140147221148</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.04822654175197662</v>
+        <v>0.04669208376356766</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.09358160728543548</v>
+        <v>0.09307691759470305</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>71</v>
@@ -2996,19 +2996,19 @@
         <v>36309</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>28621</v>
+        <v>28485</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>45617</v>
+        <v>45092</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.06793716094775228</v>
+        <v>0.06793716094775229</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.05355240932569118</v>
+        <v>0.05329794284936751</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.08535230215339441</v>
+        <v>0.08436988051719685</v>
       </c>
     </row>
     <row r="36">
@@ -3025,19 +3025,19 @@
         <v>41089</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>32702</v>
+        <v>32489</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>51789</v>
+        <v>51444</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1517831553660553</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1208018643236442</v>
+        <v>0.1200159142975054</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1913091761287549</v>
+        <v>0.1900340854384863</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>102</v>
@@ -3046,19 +3046,19 @@
         <v>46871</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>37849</v>
+        <v>38029</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>55729</v>
+        <v>55779</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.1777094916800457</v>
+        <v>0.1777094916800456</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1435045259392355</v>
+        <v>0.1441852996525427</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2112960498836922</v>
+        <v>0.2114829014033686</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>174</v>
@@ -3067,19 +3067,19 @@
         <v>87960</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>74658</v>
+        <v>75585</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>101032</v>
+        <v>102057</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1645775902811608</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1396889222547568</v>
+        <v>0.1414241280991446</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1890369575340757</v>
+        <v>0.1909545533394095</v>
       </c>
     </row>
     <row r="37">
@@ -3096,19 +3096,19 @@
         <v>131290</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>117117</v>
+        <v>117049</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>146650</v>
+        <v>148033</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.4849909862314752</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.4326326290491156</v>
+        <v>0.4323820211447955</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.5417291312683442</v>
+        <v>0.5468387174249194</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>216</v>
@@ -3117,19 +3117,19 @@
         <v>126540</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>112373</v>
+        <v>114374</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>138834</v>
+        <v>141129</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.479770864683809</v>
+        <v>0.4797708646838089</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.4260605716619452</v>
+        <v>0.4336456495150335</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.5263862672672512</v>
+        <v>0.5350850034728986</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>394</v>
@@ -3138,19 +3138,19 @@
         <v>257830</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>240109</v>
+        <v>238574</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>277704</v>
+        <v>277164</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.4824148989439507</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.4492578755356885</v>
+        <v>0.4463856759570856</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.5196000144185932</v>
+        <v>0.5185890367385277</v>
       </c>
     </row>
     <row r="38">
@@ -3167,19 +3167,19 @@
         <v>73324</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>59167</v>
+        <v>60061</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>86921</v>
+        <v>87868</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.2708617289858475</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2185645104396409</v>
+        <v>0.221868237779922</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.3210884284917508</v>
+        <v>0.3245881759373848</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>88</v>
@@ -3188,19 +3188,19 @@
         <v>65305</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>55081</v>
+        <v>53469</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>77908</v>
+        <v>76776</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>0.2476033614468935</v>
+        <v>0.2476033614468933</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.2088387677536316</v>
+        <v>0.2027271904939776</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2953839875389391</v>
+        <v>0.291092548748812</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>165</v>
@@ -3209,19 +3209,19 @@
         <v>138630</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>121691</v>
+        <v>119502</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>157565</v>
+        <v>158430</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.2593839148394588</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.2276903805660286</v>
+        <v>0.2235955002413205</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2948128596015523</v>
+        <v>0.2964316209871892</v>
       </c>
     </row>
     <row r="39">
@@ -3313,19 +3313,19 @@
         <v>12039</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>6150</v>
+        <v>6368</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>20791</v>
+        <v>21606</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>0.01672782566376667</v>
+        <v>0.01672782566376668</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.008544948405223719</v>
+        <v>0.008847617337497563</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.0288890236756037</v>
+        <v>0.03002083730716218</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>20</v>
@@ -3334,19 +3334,19 @@
         <v>14739</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>9221</v>
+        <v>9197</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>22722</v>
+        <v>22824</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.0190903217633448</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.0119430397669957</v>
+        <v>0.01191200152096533</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.02943043423266827</v>
+        <v>0.02956220986255987</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>31</v>
@@ -3355,19 +3355,19 @@
         <v>26778</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>18540</v>
+        <v>18537</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>37688</v>
+        <v>39142</v>
       </c>
       <c r="U40" s="6" t="n">
-        <v>0.01795054305553469</v>
+        <v>0.0179505430555347</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.01242857325707407</v>
+        <v>0.01242615609441818</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.02526406100227622</v>
+        <v>0.02623932884762034</v>
       </c>
     </row>
     <row r="41">
@@ -3384,19 +3384,19 @@
         <v>45816</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>31917</v>
+        <v>31836</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>63783</v>
+        <v>62373</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.06366052511871355</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.04434853017665154</v>
+        <v>0.04423564093748817</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.08862539027783668</v>
+        <v>0.08666705490823645</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>125</v>
@@ -3405,19 +3405,19 @@
         <v>97122</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>79966</v>
+        <v>81621</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>114732</v>
+        <v>115428</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1257957791545247</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1035751033382593</v>
+        <v>0.1057194360522546</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1486061620309536</v>
+        <v>0.1495074359286853</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>164</v>
@@ -3426,19 +3426,19 @@
         <v>142937</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>119904</v>
+        <v>121999</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>167059</v>
+        <v>166735</v>
       </c>
       <c r="U41" s="6" t="n">
-        <v>0.09581882403191692</v>
+        <v>0.09581882403191695</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.08037842054118763</v>
+        <v>0.0817826342192145</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.111989007798798</v>
+        <v>0.1117720857711876</v>
       </c>
     </row>
     <row r="42">
@@ -3455,19 +3455,19 @@
         <v>339137</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>307161</v>
+        <v>308433</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>369360</v>
+        <v>369470</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.4712282817976567</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.4267986826167591</v>
+        <v>0.4285652020395678</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.5132232307401811</v>
+        <v>0.5133758926170212</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>460</v>
@@ -3476,19 +3476,19 @@
         <v>366472</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>341883</v>
+        <v>341642</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>395479</v>
+        <v>392745</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.4746693894781254</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.4428208149272021</v>
+        <v>0.4425089935803741</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.512240664620342</v>
+        <v>0.5086994952228561</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>762</v>
@@ -3497,19 +3497,19 @@
         <v>705609</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>664387</v>
+        <v>666340</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>743360</v>
+        <v>747917</v>
       </c>
       <c r="U42" s="6" t="n">
-        <v>0.4730092380534605</v>
+        <v>0.4730092380534606</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.4453763056906098</v>
+        <v>0.4466854530101221</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.4983162386308875</v>
+        <v>0.5013708876550668</v>
       </c>
     </row>
     <row r="43">
@@ -3526,19 +3526,19 @@
         <v>174235</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>146047</v>
+        <v>148011</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>201232</v>
+        <v>201312</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>0.2420983323986277</v>
+        <v>0.2420983323986278</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.202930989118825</v>
+        <v>0.2056595646788684</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.2796102036415079</v>
+        <v>0.2797209511905336</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>213</v>
@@ -3547,19 +3547,19 @@
         <v>175274</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>154348</v>
+        <v>154031</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>200261</v>
+        <v>197810</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.2270215872562843</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.1999182867310682</v>
+        <v>0.1995069131244916</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.259385980982209</v>
+        <v>0.2562121673539713</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>354</v>
@@ -3568,19 +3568,19 @@
         <v>349509</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>316815</v>
+        <v>315069</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>384488</v>
+        <v>384536</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.2342953148613335</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.212379081243622</v>
+        <v>0.2112083027698577</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.2577440137689616</v>
+        <v>0.2577761637739179</v>
       </c>
     </row>
     <row r="44">
@@ -3597,19 +3597,19 @@
         <v>148461</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>120524</v>
+        <v>121861</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>180272</v>
+        <v>177308</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.2062850350212354</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1674665672717341</v>
+        <v>0.1693256648945863</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2504861696048101</v>
+        <v>0.2463680501922187</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>142</v>
@@ -3618,19 +3618,19 @@
         <v>118451</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>100407</v>
+        <v>100841</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>137184</v>
+        <v>140560</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>0.1534229223477207</v>
+        <v>0.1534229223477206</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.1300510009434709</v>
+        <v>0.1306135074346097</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.1776862261395603</v>
+        <v>0.1820589567762416</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>248</v>
@@ -3639,19 +3639,19 @@
         <v>266912</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>235064</v>
+        <v>234450</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>302480</v>
+        <v>303399</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.1789260799977544</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.1575766644438221</v>
+        <v>0.1571651136344762</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.2027692021878568</v>
+        <v>0.2033857133053643</v>
       </c>
     </row>
     <row r="45">
@@ -3743,19 +3743,19 @@
         <v>6333</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>2433</v>
+        <v>2327</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>13109</v>
+        <v>14466</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.007935794907755664</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.003048842292124446</v>
+        <v>0.002915212892688509</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.01642576408071094</v>
+        <v>0.01812647768267072</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>9</v>
@@ -3764,19 +3764,19 @@
         <v>8040</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>3657</v>
+        <v>3705</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>16019</v>
+        <v>16547</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.009671763038591954</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.004399389841822078</v>
+        <v>0.004457164427116039</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.0192689758917154</v>
+        <v>0.01990414378878674</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>15</v>
@@ -3785,19 +3785,19 @@
         <v>14374</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>7830</v>
+        <v>7970</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>23462</v>
+        <v>23918</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.008821496355789221</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.004805678776530531</v>
+        <v>0.004891174601289478</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.01439896715052177</v>
+        <v>0.01467904354581094</v>
       </c>
     </row>
     <row r="47">
@@ -3814,19 +3814,19 @@
         <v>35072</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>25123</v>
+        <v>25233</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>49284</v>
+        <v>46934</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.04394633292086071</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.03147945973259292</v>
+        <v>0.03161714535190333</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.0617537142191496</v>
+        <v>0.05880868227054793</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>100</v>
@@ -3835,19 +3835,19 @@
         <v>70595</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>57599</v>
+        <v>57737</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>84588</v>
+        <v>84674</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.08491751427276653</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.069285495407993</v>
+        <v>0.06945141120141268</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.101750351813063</v>
+        <v>0.1018538214514954</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>137</v>
@@ -3856,19 +3856,19 @@
         <v>105667</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>87556</v>
+        <v>88683</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>123849</v>
+        <v>123815</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.06485007764199614</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.05373478880299498</v>
+        <v>0.05442658481250113</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.07600902357192778</v>
+        <v>0.0759877625179004</v>
       </c>
     </row>
     <row r="48">
@@ -3885,19 +3885,19 @@
         <v>535484</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>508428</v>
+        <v>508773</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>564196</v>
+        <v>561588</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.6709726117000943</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.6370700410414564</v>
+        <v>0.6375027152122694</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.7069487182764694</v>
+        <v>0.7036808355578567</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>736</v>
@@ -3906,19 +3906,19 @@
         <v>556702</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>532507</v>
+        <v>532399</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>581811</v>
+        <v>582785</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.6696513698968277</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.6405477955070686</v>
+        <v>0.6404177209268339</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.6998550132102623</v>
+        <v>0.7010263344870146</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>1278</v>
@@ -3927,19 +3927,19 @@
         <v>1092186</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>1047263</v>
+        <v>1052339</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>1129436</v>
+        <v>1131111</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.6702985061346932</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.6427281932046895</v>
+        <v>0.6458432556170366</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.6931595831294253</v>
+        <v>0.6941873716841769</v>
       </c>
     </row>
     <row r="49">
@@ -3956,19 +3956,19 @@
         <v>157021</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>130681</v>
+        <v>133931</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>181189</v>
+        <v>183637</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.1967501859316192</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.1637463983823759</v>
+        <v>0.1678182235433931</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.2270331848063638</v>
+        <v>0.2301003028459825</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>157</v>
@@ -3977,19 +3977,19 @@
         <v>141117</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>120811</v>
+        <v>118129</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>161851</v>
+        <v>161670</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.1697480725948167</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.1453219159291054</v>
+        <v>0.1420959439440882</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.1946895747686438</v>
+        <v>0.1944713368989045</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>281</v>
@@ -3998,19 +3998,19 @@
         <v>298138</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>265139</v>
+        <v>267021</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>337133</v>
+        <v>333195</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.1829735442654782</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.1627213834462322</v>
+        <v>0.1638765927319595</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.2069060438204013</v>
+        <v>0.2044892518465337</v>
       </c>
     </row>
     <row r="50">
@@ -4027,19 +4027,19 @@
         <v>64161</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>49073</v>
+        <v>47510</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>84301</v>
+        <v>82759</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.08039507453967003</v>
+        <v>0.08039507453967004</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.06148889122460818</v>
+        <v>0.05953128661408811</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.1056301969808483</v>
+        <v>0.1036985933570974</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>60</v>
@@ -4048,19 +4048,19 @@
         <v>54877</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>42442</v>
+        <v>40821</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>69220</v>
+        <v>69027</v>
       </c>
       <c r="N50" s="6" t="n">
-        <v>0.06601128019699713</v>
+        <v>0.06601128019699712</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.05105285051276822</v>
+        <v>0.04910337291789448</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.08326429499322377</v>
+        <v>0.08303155183789007</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>113</v>
@@ -4069,19 +4069,19 @@
         <v>119038</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>99663</v>
+        <v>98439</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>145686</v>
+        <v>142993</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.07305637560204323</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.06116522101120959</v>
+        <v>0.06041436851857704</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.08941072551375993</v>
+        <v>0.08775770615203364</v>
       </c>
     </row>
     <row r="51">
@@ -4173,19 +4173,19 @@
         <v>35305</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>24609</v>
+        <v>25345</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>49574</v>
+        <v>49671</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.009993670952906621</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.006965992866964981</v>
+        <v>0.007174144885963428</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.01403272878062168</v>
+        <v>0.01406007356581544</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>80</v>
@@ -4194,19 +4194,19 @@
         <v>51367</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>40681</v>
+        <v>40846</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>65564</v>
+        <v>64736</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.01374795326929336</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.01088796970883934</v>
+        <v>0.01093223784753939</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.01754780500235779</v>
+        <v>0.01732606918377998</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>119</v>
@@ -4215,19 +4215,19 @@
         <v>86672</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>72863</v>
+        <v>70601</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>107570</v>
+        <v>105536</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.0119233776810928</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.01002365463786939</v>
+        <v>0.009712520059881852</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.01479824843906273</v>
+        <v>0.01451847137187185</v>
       </c>
     </row>
     <row r="53">
@@ -4244,19 +4244,19 @@
         <v>184721</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>159762</v>
+        <v>157023</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>217788</v>
+        <v>215250</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.05228785430817971</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.04522292014108476</v>
+        <v>0.04444776196820412</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.06164796034603631</v>
+        <v>0.06092954771199208</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>482</v>
@@ -4265,19 +4265,19 @@
         <v>309428</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>279897</v>
+        <v>283821</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>336563</v>
+        <v>337582</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.08281641156048845</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.07491259585425006</v>
+        <v>0.07596284977311876</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.09007884646534353</v>
+        <v>0.09035146795603571</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>677</v>
@@ -4286,19 +4286,19 @@
         <v>494149</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>457228</v>
+        <v>455982</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>537374</v>
+        <v>532906</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.06797957841599682</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.0629003404488456</v>
+        <v>0.06272891945447605</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.07392603036427868</v>
+        <v>0.07331136619580159</v>
       </c>
     </row>
     <row r="54">
@@ -4315,19 +4315,19 @@
         <v>1485178</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>1426485</v>
+        <v>1420381</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>1553099</v>
+        <v>1547789</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.4204014858311833</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.4037874883206991</v>
+        <v>0.4020594940036309</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.4396273416821473</v>
+        <v>0.4381242051699805</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>2555</v>
@@ -4336,19 +4336,19 @@
         <v>1684924</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>1631503</v>
+        <v>1631072</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>1740514</v>
+        <v>1734799</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.4509583656997833</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.4366605128080675</v>
+        <v>0.4365452459964001</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.4658367777720065</v>
+        <v>0.4643070111112807</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>4122</v>
@@ -4357,19 +4357,19 @@
         <v>3170102</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>3085901</v>
+        <v>3082945</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>3252143</v>
+        <v>3250290</v>
       </c>
       <c r="U54" s="6" t="n">
-        <v>0.4361077678061536</v>
+        <v>0.4361077678061535</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.4245242192062803</v>
+        <v>0.4241176944928452</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.4473940185952612</v>
+        <v>0.4471390758290929</v>
       </c>
     </row>
     <row r="55">
@@ -4386,19 +4386,19 @@
         <v>1243650</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>1185904</v>
+        <v>1178686</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>1311248</v>
+        <v>1303165</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.3520334539879506</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.335687585442262</v>
+        <v>0.3336442629136062</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.3711678815006047</v>
+        <v>0.3688799756982187</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>1714</v>
@@ -4407,19 +4407,19 @@
         <v>1228149</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>1180096</v>
+        <v>1181570</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>1278211</v>
+        <v>1278647</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.3287056370548624</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.3158446209080439</v>
+        <v>0.3162392464816942</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.342104552348473</v>
+        <v>0.3422211020689226</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>2858</v>
@@ -4428,19 +4428,19 @@
         <v>2471799</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>2385229</v>
+        <v>2390942</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>2551214</v>
+        <v>2551048</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.3400429211787396</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.328133614367172</v>
+        <v>0.3289194465840975</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.350967871451512</v>
+        <v>0.3509450607736145</v>
       </c>
     </row>
     <row r="56">
@@ -4457,19 +4457,19 @@
         <v>583907</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>524937</v>
+        <v>529750</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>646183</v>
+        <v>642622</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.1652835349197799</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.1485909676194567</v>
+        <v>0.1499533886285315</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.1829116084339101</v>
+        <v>0.1819036139161762</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>535</v>
@@ -4478,19 +4478,19 @@
         <v>462450</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>422922</v>
+        <v>425175</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>501171</v>
+        <v>502701</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.1237716324155724</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.1131922404061017</v>
+        <v>0.1137952314680466</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.1341350786044624</v>
+        <v>0.1345444077362386</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>966</v>
@@ -4499,19 +4499,19 @@
         <v>1046358</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>981797</v>
+        <v>981476</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>1128256</v>
+        <v>1119715</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.1439463549180173</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.1350648797602086</v>
+        <v>0.1350207007429348</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.1552130179931594</v>
+        <v>0.1540380499437627</v>
       </c>
     </row>
     <row r="57">
